--- a/Training/BiLSTM_ETH_result1.xlsx
+++ b/Training/BiLSTM_ETH_result1.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>33.68467402845758</v>
+        <v>61.37303209496093</v>
       </c>
       <c r="F1" t="n">
-        <v>29.02312260362249</v>
+        <v>53.74167304668848</v>
       </c>
       <c r="G1" t="n">
-        <v>2.217778739652752</v>
+        <v>4.180976183456051</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>31.02367085690337</v>
+        <v>39.61880299362649</v>
       </c>
       <c r="F2" t="n">
-        <v>26.6428994966153</v>
+        <v>34.10618090773638</v>
       </c>
       <c r="G2" t="n">
-        <v>2.026875102261301</v>
+        <v>2.625628550649294</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>42.83386991817848</v>
+        <v>51.52500151558979</v>
       </c>
       <c r="F3" t="n">
-        <v>37.13555974292301</v>
+        <v>45.0248130041528</v>
       </c>
       <c r="G3" t="n">
-        <v>2.881018761231744</v>
+        <v>3.488860442390548</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>23.19479854448587</v>
+        <v>43.70541721693545</v>
       </c>
       <c r="F4" t="n">
-        <v>19.55008222121527</v>
+        <v>37.81183640384133</v>
       </c>
       <c r="G4" t="n">
-        <v>1.443108471173862</v>
+        <v>2.929328669425791</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>19.83873152661551</v>
+        <v>18.31436592725522</v>
       </c>
       <c r="F5" t="n">
-        <v>16.18154341247147</v>
+        <v>13.08962441368905</v>
       </c>
       <c r="G5" t="n">
-        <v>1.175660585120952</v>
+        <v>0.8899931218707348</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>35.88338858357046</v>
+        <v>21.16570674014725</v>
       </c>
       <c r="F6" t="n">
-        <v>30.96003548036365</v>
+        <v>17.59228935098737</v>
       </c>
       <c r="G6" t="n">
-        <v>2.386185223001032</v>
+        <v>1.300825948676739</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17.99946430229498</v>
+        <v>15.99338254771937</v>
       </c>
       <c r="F7" t="n">
-        <v>13.8154587057592</v>
+        <v>11.16902266166497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9869571207561514</v>
+        <v>0.7691197679091978</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>17.65952810022726</v>
+        <v>16.0763393125761</v>
       </c>
       <c r="F8" t="n">
-        <v>12.69803480540048</v>
+        <v>11.66480530462031</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8753756782108595</v>
+        <v>0.8194662102075062</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>17.07285973777919</v>
+        <v>17.3379099735396</v>
       </c>
       <c r="F9" t="n">
-        <v>12.46763065064769</v>
+        <v>12.17041195906282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8788786194731122</v>
+        <v>0.8233440583416544</v>
       </c>
     </row>
   </sheetData>
